--- a/teste.xlsx
+++ b/teste.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCF104A-826F-416E-867C-96D25901DE6F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF11564-A974-44A4-84B7-C27249721B0F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Coisas importantes</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -58,8 +62,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,15 +348,13 @@
   <dimension ref="D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
